--- a/tests/data.gui/test/spectrophotometry/dsl.8/kev.constants.data.xlsx
+++ b/tests/data.gui/test/spectrophotometry/dsl.8/kev.constants.data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -278,10 +278,13 @@
     <t xml:space="preserve">10.529052734375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170230178609874</t>
+    <t xml:space="preserve">0.170213542418991</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988365</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1071,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.988365436814004</v>
+      <c r="A2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18903.3667999251</v>
+        <v>18903.3667991927</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1183,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4208.30104226288</v>
+        <v>4208.30104580578</v>
       </c>
     </row>
     <row r="3">
@@ -1200,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9080.27170696251</v>
+        <v>9080.27170361407</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1233,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37222.505670662</v>
+        <v>37222.5056419082</v>
       </c>
     </row>
     <row r="4">
@@ -1250,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3008.7832884219</v>
+        <v>3008.78328457346</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1283,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>52323.1373747042</v>
+        <v>52323.1373262461</v>
       </c>
     </row>
     <row r="5">
@@ -1300,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>324.212708477473</v>
+        <v>324.212708527369</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1788.04887241703</v>
+        <v>1788.04887032606</v>
       </c>
     </row>
     <row r="6">
@@ -1350,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>116.924034494976</v>
+        <v>116.924025991038</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1383,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>644.841742999464</v>
+        <v>644.841695246507</v>
       </c>
     </row>
     <row r="7">
@@ -1400,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.797159882962</v>
+        <v>159.797158081527</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1433,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>881.289116907109</v>
+        <v>881.289105805885</v>
       </c>
     </row>
   </sheetData>
@@ -2177,16 +2180,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.47241493854237e-08</v>
+        <v>0.0000000547241493854237</v>
       </c>
       <c r="B2" t="n">
-        <v>4.35570981644346e-06</v>
+        <v>0.00000435570981644346</v>
       </c>
       <c r="C2" t="n">
-        <v>9.37932625943531e-05</v>
+        <v>0.0000937932625943531</v>
       </c>
       <c r="D2" t="n">
-        <v>1.09343715206136e-08</v>
+        <v>0.000000010934371520641</v>
       </c>
       <c r="E2" t="n">
         <v>0.0719843286270934</v>
@@ -2195,86 +2198,86 @@
         <v>0.0168041665875559</v>
       </c>
       <c r="G2" t="n">
-        <v>6.66186761335989e-08</v>
+        <v>0.0000000666186761335989</v>
       </c>
       <c r="H2" t="n">
-        <v>1.39968975711353e-06</v>
+        <v>0.00000139968975711705</v>
       </c>
       <c r="I2" t="n">
-        <v>2.83968222477952e-06</v>
+        <v>0.00000283968222478666</v>
       </c>
       <c r="J2" t="n">
-        <v>2.91213030754071e-09</v>
+        <v>0.00000000291213030754804</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4526059779437e-10</v>
+        <v>0.000000000245260597794987</v>
       </c>
       <c r="L2" t="n">
-        <v>2.24189261415731e-09</v>
+        <v>0.00000000224189261416294</v>
       </c>
       <c r="M2" t="n">
-        <v>2.14867951324957e-09</v>
+        <v>0.00000000214867951324957</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25229436306682e-06</v>
+        <v>0.000003252294363075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.47302213403888e-08</v>
+        <v>0.0000000547302213403866</v>
       </c>
       <c r="B3" t="n">
-        <v>4.17329463491671e-06</v>
+        <v>0.00000417329463491703</v>
       </c>
       <c r="C3" t="n">
-        <v>8.77444526124324e-05</v>
+        <v>0.0000877444526097644</v>
       </c>
       <c r="D3" t="n">
-        <v>2.41126003756057e-08</v>
+        <v>0.0000000241126012206939</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0689773096726749</v>
+        <v>0.0689773096726776</v>
       </c>
       <c r="F3" t="n">
         <v>0.016103988660061</v>
       </c>
       <c r="G3" t="n">
-        <v>6.38499645663379e-08</v>
+        <v>0.0000000638499645663356</v>
       </c>
       <c r="H3" t="n">
-        <v>2.95767397595869e-06</v>
+        <v>0.0000029576740796181</v>
       </c>
       <c r="I3" t="n">
-        <v>5.74985048312849e-06</v>
+        <v>0.00000574985068464724</v>
       </c>
       <c r="J3" t="n">
-        <v>6.1542835884293e-09</v>
+        <v>0.00000000615428380412203</v>
       </c>
       <c r="K3" t="n">
-        <v>4.96719215189558e-10</v>
+        <v>0.000000000496719232598363</v>
       </c>
       <c r="L3" t="n">
-        <v>4.94329859080485e-09</v>
+        <v>0.00000000494329876405567</v>
       </c>
       <c r="M3" t="n">
-        <v>2.01010928199636e-09</v>
+        <v>0.00000000201010928193525</v>
       </c>
       <c r="N3" t="n">
-        <v>6.27676863914283e-06</v>
+        <v>0.00000627676885874664</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.47370400304656e-08</v>
+        <v>0.0000000547370400304656</v>
       </c>
       <c r="B4" t="n">
-        <v>3.99085143357563e-06</v>
+        <v>0.00000399085143357563</v>
       </c>
       <c r="C4" t="n">
-        <v>8.21192746456587e-05</v>
+        <v>0.0000821192746456587</v>
       </c>
       <c r="D4" t="n">
-        <v>3.98651429895903e-08</v>
+        <v>0.0000000398651429895903</v>
       </c>
       <c r="E4" t="n">
         <v>0.0659700585366921</v>
@@ -2283,42 +2286,42 @@
         <v>0.0154038108879839</v>
       </c>
       <c r="G4" t="n">
-        <v>6.10814709221463e-08</v>
+        <v>0.0000000610814709221463</v>
       </c>
       <c r="H4" t="n">
-        <v>4.67670736399581e-06</v>
+        <v>0.00000467670736399581</v>
       </c>
       <c r="I4" t="n">
-        <v>8.69534994798863e-06</v>
+        <v>0.00000869534994798863</v>
       </c>
       <c r="J4" t="n">
-        <v>9.73243483107388e-09</v>
+        <v>0.00000000973243483107388</v>
       </c>
       <c r="K4" t="n">
-        <v>7.51362788204753e-10</v>
+        <v>0.000000000751362788204753</v>
       </c>
       <c r="L4" t="n">
-        <v>8.17169253083678e-09</v>
+        <v>0.00000000817169253083678</v>
       </c>
       <c r="M4" t="n">
-        <v>1.88124389954492e-09</v>
+        <v>0.00000000188124389954492</v>
       </c>
       <c r="N4" t="n">
-        <v>9.08942205544671e-06</v>
+        <v>0.00000908942205544671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.47446900003897e-08</v>
+        <v>0.0000000547446900003897</v>
       </c>
       <c r="B5" t="n">
-        <v>3.80838339470497e-06</v>
+        <v>0.00000380838339470497</v>
       </c>
       <c r="C5" t="n">
-        <v>7.68608039278781e-05</v>
+        <v>0.0000768608039278781</v>
       </c>
       <c r="D5" t="n">
-        <v>5.86701921643845e-08</v>
+        <v>0.0000000586701921643845</v>
       </c>
       <c r="E5" t="n">
         <v>0.0629626014650262</v>
@@ -2327,86 +2330,86 @@
         <v>0.0147036333496759</v>
       </c>
       <c r="G5" t="n">
-        <v>5.83131719368715e-08</v>
+        <v>0.0000000583131719368715</v>
       </c>
       <c r="H5" t="n">
-        <v>6.56901380291097e-06</v>
+        <v>0.00000656901380291097</v>
       </c>
       <c r="I5" t="n">
-        <v>1.16568937543296e-05</v>
+        <v>0.0000116568937543296</v>
       </c>
       <c r="J5" t="n">
-        <v>1.36723187658721e-08</v>
+        <v>0.0000000136723187658721</v>
       </c>
       <c r="K5" t="n">
-        <v>1.00755053942074e-09</v>
+        <v>0.00000000100755053942074</v>
       </c>
       <c r="L5" t="n">
-        <v>1.20247348784719e-08</v>
+        <v>0.0000000120247348784719</v>
       </c>
       <c r="M5" t="n">
-        <v>1.76077929484102e-09</v>
+        <v>0.00000000176077929484102</v>
       </c>
       <c r="N5" t="n">
-        <v>1.17187176464148e-05</v>
+        <v>0.0000117187176464148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.47532422893174e-08</v>
+        <v>0.0000000547532422893178</v>
       </c>
       <c r="B6" t="n">
-        <v>3.62589774742583e-06</v>
+        <v>0.00000362589774742578</v>
       </c>
       <c r="C6" t="n">
-        <v>7.19369296449459e-05</v>
+        <v>0.0000719369296453355</v>
       </c>
       <c r="D6" t="n">
-        <v>8.10478469799064e-08</v>
+        <v>0.000000081047846964825</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0599549981868842</v>
+        <v>0.0599549981868838</v>
       </c>
       <c r="F6" t="n">
         <v>0.0140034561503931</v>
       </c>
       <c r="G6" t="n">
-        <v>5.55450135988678e-08</v>
+        <v>0.0000000555450135988686</v>
       </c>
       <c r="H6" t="n">
-        <v>8.64105713213652e-06</v>
+        <v>0.00000864105713052849</v>
       </c>
       <c r="I6" t="n">
-        <v>1.46013251024459e-05</v>
+        <v>0.0000146013250997285</v>
       </c>
       <c r="J6" t="n">
-        <v>1.79877448324483e-08</v>
+        <v>0.0000000179877448291011</v>
       </c>
       <c r="K6" t="n">
-        <v>1.26244350988794e-09</v>
+        <v>0.00000000126244350965303</v>
       </c>
       <c r="L6" t="n">
-        <v>1.66085470358783e-08</v>
+        <v>0.0000000166085470327876</v>
       </c>
       <c r="M6" t="n">
-        <v>1.64797985163038e-09</v>
+        <v>0.0000000016479798516393</v>
       </c>
       <c r="N6" t="n">
-        <v>1.41807111898915e-05</v>
+        <v>0.0000141807111874064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.47627944008977e-08</v>
+        <v>0.0000000547627944008977</v>
       </c>
       <c r="B7" t="n">
-        <v>3.44340028454411e-06</v>
+        <v>0.00000344340028454411</v>
       </c>
       <c r="C7" t="n">
-        <v>6.73115842353328e-05</v>
+        <v>0.0000673115842353328</v>
       </c>
       <c r="D7" t="n">
-        <v>1.07666055902854e-07</v>
+        <v>0.000000107666055902854</v>
       </c>
       <c r="E7" t="n">
         <v>0.0569472965809393</v>
@@ -2415,42 +2418,42 @@
         <v>0.0133032794152533</v>
       </c>
       <c r="G7" t="n">
-        <v>5.2776953067108e-08</v>
+        <v>0.000000052776953067108</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09031482171871e-05</v>
+        <v>0.0000109031482171871</v>
       </c>
       <c r="I7" t="n">
-        <v>1.74994753307167e-05</v>
+        <v>0.0000174994753307167</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2700609442845e-08</v>
+        <v>0.000000022700609442845</v>
       </c>
       <c r="K7" t="n">
-        <v>1.5135481086827e-09</v>
+        <v>0.0000000015135481086827</v>
       </c>
       <c r="L7" t="n">
-        <v>2.20593749728243e-08</v>
+        <v>0.0000000220593749728243</v>
       </c>
       <c r="M7" t="n">
-        <v>1.54201930981277e-09</v>
+        <v>0.00000000154201930981277</v>
       </c>
       <c r="N7" t="n">
-        <v>1.64934368765196e-05</v>
+        <v>0.0000164934368765196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.47734538624919e-08</v>
+        <v>0.0000000547734538624919</v>
       </c>
       <c r="B8" t="n">
-        <v>3.26089820405256e-06</v>
+        <v>0.00000326089820405256</v>
       </c>
       <c r="C8" t="n">
-        <v>6.29561601216983e-05</v>
+        <v>0.0000629561601216983</v>
       </c>
       <c r="D8" t="n">
-        <v>1.39329476890908e-07</v>
+        <v>0.000000139329476890908</v>
       </c>
       <c r="E8" t="n">
         <v>0.0539395561885733</v>
@@ -2459,42 +2462,42 @@
         <v>0.0126031033018204</v>
       </c>
       <c r="G8" t="n">
-        <v>5.0008936998791e-08</v>
+        <v>0.000000050008936998791</v>
       </c>
       <c r="H8" t="n">
-        <v>1.33644279920879e-05</v>
+        <v>0.0000133644279920879</v>
       </c>
       <c r="I8" t="n">
-        <v>2.03169140872757e-05</v>
+        <v>0.0000203169140872757</v>
       </c>
       <c r="J8" t="n">
-        <v>2.78304675523093e-08</v>
+        <v>0.0000000278304675523093</v>
       </c>
       <c r="K8" t="n">
-        <v>1.75791551250333e-09</v>
+        <v>0.00000000175791551250333</v>
       </c>
       <c r="L8" t="n">
-        <v>2.8541242750969e-08</v>
+        <v>0.000000028541242750969</v>
       </c>
       <c r="M8" t="n">
-        <v>1.44224230765267e-09</v>
+        <v>0.00000000144224230765267</v>
       </c>
       <c r="N8" t="n">
-        <v>1.86711988180217e-05</v>
+        <v>0.0000186711988180217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.4785395167098e-08</v>
+        <v>0.000000054785395167098</v>
       </c>
       <c r="B9" t="n">
-        <v>3.07839403977293e-06</v>
+        <v>0.00000307839403977293</v>
       </c>
       <c r="C9" t="n">
-        <v>5.88328935549429e-05</v>
+        <v>0.0000588328935549429</v>
       </c>
       <c r="D9" t="n">
-        <v>1.7716032501043e-07</v>
+        <v>0.00000017716032501043</v>
       </c>
       <c r="E9" t="n">
         <v>0.0509317980121859</v>
@@ -2503,28 +2506,28 @@
         <v>0.0119029280010262</v>
       </c>
       <c r="G9" t="n">
-        <v>4.72409481115998e-08</v>
+        <v>0.0000000472409481115998</v>
       </c>
       <c r="H9" t="n">
-        <v>1.60455820780202e-05</v>
+        <v>0.0000160455820780202</v>
       </c>
       <c r="I9" t="n">
-        <v>2.30326805634634e-05</v>
+        <v>0.0000230326805634634</v>
       </c>
       <c r="J9" t="n">
-        <v>3.34210642238391e-08</v>
+        <v>0.0000000334210642238391</v>
       </c>
       <c r="K9" t="n">
-        <v>1.99376552240567e-09</v>
+        <v>0.00000000199376552240567</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6282873095203e-08</v>
+        <v>0.000000036282873095203</v>
       </c>
       <c r="M9" t="n">
-        <v>1.34778372763749e-09</v>
+        <v>0.00000000134778372763749</v>
       </c>
       <c r="N9" t="n">
-        <v>2.07328793306647e-05</v>
+        <v>0.0000207328793306647</v>
       </c>
     </row>
   </sheetData>
@@ -2581,28 +2584,28 @@
         <v>299</v>
       </c>
       <c r="C2" t="n">
-        <v>1.78669507994059</v>
+        <v>1.78669507988342</v>
       </c>
       <c r="D2" t="n">
-        <v>1.68508010439761</v>
+        <v>1.68508010436246</v>
       </c>
       <c r="E2" t="n">
-        <v>1.59058179428018</v>
+        <v>1.59058179425224</v>
       </c>
       <c r="F2" t="n">
-        <v>1.50224386087119</v>
+        <v>1.50224386085642</v>
       </c>
       <c r="G2" t="n">
-        <v>1.41952686921619</v>
+        <v>1.41952686932576</v>
       </c>
       <c r="H2" t="n">
-        <v>1.34182491428251</v>
+        <v>1.34182491429164</v>
       </c>
       <c r="I2" t="n">
-        <v>1.26865741254146</v>
+        <v>1.2686574125615</v>
       </c>
       <c r="J2" t="n">
-        <v>1.19938996446638</v>
+        <v>1.19938996449675</v>
       </c>
     </row>
     <row r="3">
@@ -2613,28 +2616,28 @@
         <v>345</v>
       </c>
       <c r="C3" t="n">
-        <v>0.972726854011142</v>
+        <v>0.972726853603557</v>
       </c>
       <c r="D3" t="n">
-        <v>1.03038052676352</v>
+        <v>1.03038052635219</v>
       </c>
       <c r="E3" t="n">
-        <v>1.08399639016316</v>
+        <v>1.08399638962684</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13411701732726</v>
+        <v>1.13411701673294</v>
       </c>
       <c r="G3" t="n">
-        <v>1.18104846953184</v>
+        <v>1.18104847376409</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22513452154787</v>
+        <v>1.22513452084823</v>
       </c>
       <c r="I3" t="n">
-        <v>1.26664784341393</v>
+        <v>1.26664784266626</v>
       </c>
       <c r="J3" t="n">
-        <v>1.3059483772405</v>
+        <v>1.30594837644736</v>
       </c>
     </row>
     <row r="4">
@@ -2645,28 +2648,28 @@
         <v>388</v>
       </c>
       <c r="C4" t="n">
-        <v>0.452373845802199</v>
+        <v>0.45237384528363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.592424270447133</v>
+        <v>0.592424269893918</v>
       </c>
       <c r="E4" t="n">
-        <v>0.72266618007499</v>
+        <v>0.722666179318503</v>
       </c>
       <c r="F4" t="n">
-        <v>0.844417575661602</v>
+        <v>0.844417574797941</v>
       </c>
       <c r="G4" t="n">
-        <v>0.958421931267365</v>
+        <v>0.958421937404323</v>
       </c>
       <c r="H4" t="n">
-        <v>1.06551433323562</v>
+        <v>1.06551433217733</v>
       </c>
       <c r="I4" t="n">
-        <v>1.16635714318315</v>
+        <v>1.16635714203609</v>
       </c>
       <c r="J4" t="n">
-        <v>1.26182472032915</v>
+        <v>1.26182471909806</v>
       </c>
     </row>
     <row r="5">
@@ -2677,28 +2680,28 @@
         <v>299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.033695079940594</v>
+        <v>0.0336950798834219</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0159198956023949</v>
+        <v>-0.0159198956375395</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0234182057198207</v>
+        <v>-0.023418205747761</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0327561391288049</v>
+        <v>-0.0327561391435787</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0134731307838125</v>
+        <v>-0.0134731306742388</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0518249142825062</v>
+        <v>0.0518249142916425</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0376574125414593</v>
+        <v>0.0376574125615012</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0376100355336171</v>
+        <v>-0.0376100355032509</v>
       </c>
     </row>
     <row r="6">
@@ -2709,28 +2712,28 @@
         <v>345</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0167268540111422</v>
+        <v>0.0167268536035567</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.000619473236479928</v>
+        <v>-0.000619473647812896</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.00600360983683612</v>
+        <v>-0.00600361037316288</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0178829826727349</v>
+        <v>-0.0178829832670562</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.016951530468156</v>
+        <v>-0.0169515262359063</v>
       </c>
       <c r="H6" t="n">
-        <v>0.010134521547871</v>
+        <v>0.0101345208482333</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00764784341393132</v>
+        <v>0.00764784266625873</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00694837724050412</v>
+        <v>0.0069483764473568</v>
       </c>
     </row>
     <row r="7">
@@ -2741,28 +2744,28 @@
         <v>388</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0126261541978007</v>
+        <v>-0.01262615471637</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0094242704471329</v>
+        <v>0.00942426989391776</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0146661800749903</v>
+        <v>0.0146661793185033</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00641757566160206</v>
+        <v>0.00641757479794125</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00357806873263533</v>
+        <v>-0.00357806259567728</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0164856667643831</v>
+        <v>-0.0164856678226684</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0246428568168544</v>
+        <v>-0.0246428579639084</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0268247203291518</v>
+        <v>0.0268247190980608</v>
       </c>
     </row>
   </sheetData>
@@ -2819,28 +2822,28 @@
         <v>299</v>
       </c>
       <c r="C2" t="n">
-        <v>1.78669507994059</v>
+        <v>1.78669507988342</v>
       </c>
       <c r="D2" t="n">
-        <v>1.68508010439761</v>
+        <v>1.68508010436246</v>
       </c>
       <c r="E2" t="n">
-        <v>1.59058179428018</v>
+        <v>1.59058179425224</v>
       </c>
       <c r="F2" t="n">
-        <v>1.50224386087119</v>
+        <v>1.50224386085642</v>
       </c>
       <c r="G2" t="n">
-        <v>1.41952686921619</v>
+        <v>1.41952686932576</v>
       </c>
       <c r="H2" t="n">
-        <v>1.34182491428251</v>
+        <v>1.34182491429164</v>
       </c>
       <c r="I2" t="n">
-        <v>1.26865741254146</v>
+        <v>1.2686574125615</v>
       </c>
       <c r="J2" t="n">
-        <v>1.19938996446638</v>
+        <v>1.19938996449675</v>
       </c>
     </row>
     <row r="3">
@@ -2851,28 +2854,28 @@
         <v>345</v>
       </c>
       <c r="C3" t="n">
-        <v>0.972726854011142</v>
+        <v>0.972726853603557</v>
       </c>
       <c r="D3" t="n">
-        <v>1.03038052676352</v>
+        <v>1.03038052635219</v>
       </c>
       <c r="E3" t="n">
-        <v>1.08399639016316</v>
+        <v>1.08399638962684</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13411701732726</v>
+        <v>1.13411701673294</v>
       </c>
       <c r="G3" t="n">
-        <v>1.18104846953184</v>
+        <v>1.18104847376409</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22513452154787</v>
+        <v>1.22513452084823</v>
       </c>
       <c r="I3" t="n">
-        <v>1.26664784341393</v>
+        <v>1.26664784266626</v>
       </c>
       <c r="J3" t="n">
-        <v>1.3059483772405</v>
+        <v>1.30594837644736</v>
       </c>
     </row>
     <row r="4">
@@ -2883,28 +2886,28 @@
         <v>388</v>
       </c>
       <c r="C4" t="n">
-        <v>0.452373845802199</v>
+        <v>0.45237384528363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.592424270447133</v>
+        <v>0.592424269893918</v>
       </c>
       <c r="E4" t="n">
-        <v>0.72266618007499</v>
+        <v>0.722666179318503</v>
       </c>
       <c r="F4" t="n">
-        <v>0.844417575661602</v>
+        <v>0.844417574797941</v>
       </c>
       <c r="G4" t="n">
-        <v>0.958421931267365</v>
+        <v>0.958421937404323</v>
       </c>
       <c r="H4" t="n">
-        <v>1.06551433323562</v>
+        <v>1.06551433217733</v>
       </c>
       <c r="I4" t="n">
-        <v>1.16635714318315</v>
+        <v>1.16635714203609</v>
       </c>
       <c r="J4" t="n">
-        <v>1.26182472032915</v>
+        <v>1.26182471909806</v>
       </c>
     </row>
     <row r="5">
@@ -2915,28 +2918,28 @@
         <v>299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0192213804566993</v>
+        <v>0.0192213804240855</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00935913909605816</v>
+        <v>-0.00935913911671927</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0145094211399137</v>
+        <v>-0.0145094211572249</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0213395043184397</v>
+        <v>-0.0213395043280643</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00940204520852234</v>
+        <v>-0.0094020451320578</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0401743521569816</v>
+        <v>0.0401743521640639</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0305909118939555</v>
+        <v>0.0305909119102366</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0304042324443145</v>
+        <v>-0.0304042324197663</v>
       </c>
     </row>
     <row r="6">
@@ -2947,28 +2950,28 @@
         <v>345</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0174967092166759</v>
+        <v>0.0174967087903313</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.000600846980096924</v>
+        <v>-0.000600847379061975</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.00550789893287718</v>
+        <v>-0.00550789942492007</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0155234224589713</v>
+        <v>-0.0155234229748752</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0141498584876094</v>
+        <v>-0.0141498549548467</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00834116999824772</v>
+        <v>0.00834116942241424</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00607453805713369</v>
+        <v>0.00607453746327143</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00534902020054205</v>
+        <v>0.00534901958995904</v>
       </c>
     </row>
     <row r="7">
@@ -2979,28 +2982,28 @@
         <v>388</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0271530197802165</v>
+        <v>-0.0271530208954193</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0161651294118918</v>
+        <v>0.0161651284629807</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0207149436087434</v>
+        <v>0.020714942540259</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0076582048467805</v>
+        <v>0.00765820381615901</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00371940616698059</v>
+        <v>-0.00371939978760632</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0152362909097811</v>
+        <v>-0.0152362918878635</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0206908957320356</v>
+        <v>-0.0206908966951372</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0217204213191513</v>
+        <v>0.0217204203223165</v>
       </c>
     </row>
   </sheetData>
